--- a/data_dictionary_covid_cases_restricted_detailed.xlsx
+++ b/data_dictionary_covid_cases_restricted_detailed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{DF368E8A-F4D9-4DD5-A040-6D30471ABBC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DAE807-644A-A848-A3F6-CE835B0A644D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
+    <workbookView xWindow="9240" yWindow="1720" windowWidth="27740" windowHeight="18020" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>MM/DD/YYYY</t>
-  </si>
-  <si>
     <t>Age group</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Last updated: May 3, 2020</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
@@ -688,28 +688,28 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="35" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -726,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -740,15 +740,15 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
@@ -757,17 +757,17 @@
         <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -784,9 +784,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
@@ -795,47 +795,47 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
@@ -844,16 +844,16 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>26</v>
@@ -861,7 +861,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -871,14 +871,14 @@
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -929,13 +929,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -946,12 +946,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>24</v>
@@ -965,12 +965,12 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>24</v>
@@ -984,12 +984,12 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>24</v>
@@ -1003,12 +1003,12 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>24</v>
@@ -1022,12 +1022,12 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>24</v>
@@ -1041,12 +1041,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>24</v>
@@ -1060,12 +1060,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>24</v>
@@ -1079,12 +1079,12 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>24</v>
@@ -1098,12 +1098,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -1117,12 +1117,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>24</v>
@@ -1136,12 +1136,12 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>24</v>
@@ -1155,12 +1155,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>24</v>
@@ -1174,12 +1174,12 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -1193,12 +1193,12 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>24</v>
@@ -1212,12 +1212,12 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -1231,12 +1231,12 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>24</v>
@@ -1250,7 +1250,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>3</v>
       </c>

--- a/data_dictionary_covid_cases_restricted_detailed.xlsx
+++ b/data_dictionary_covid_cases_restricted_detailed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DAE807-644A-A848-A3F6-CE835B0A644D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE3014-DAE8-6149-AC8B-F7645E8D829E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1720" windowWidth="27740" windowHeight="18020" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
+    <workbookView xWindow="5860" yWindow="1720" windowWidth="27740" windowHeight="18020" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Variable</t>
   </si>
@@ -126,12 +126,6 @@
     <t xml:space="preserve">The age group categorizations were populated using the age value that was reported on the case report form. Date of birth was used to fill in missing/unknown age values using the difference in time between date of birth and onset date. </t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is the patient a health care worker in the United States? </t>
   </si>
   <si>
@@ -232,26 +226,6 @@
   </si>
   <si>
     <t>mechvent_yn</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>Hispanic/Latino
-Non-Hispanic/Latino
-Not specified</t>
-  </si>
-  <si>
-    <t>race_combined</t>
-  </si>
-  <si>
-    <t>American Indian/Alaska Native
-Asian
-Black
-Multiple/Other
-Native Hawaiian/Other Pacific Islander
-White
-Unknown</t>
   </si>
   <si>
     <t>If more than race was reported, race was categorized into multiple/other races.</t>
@@ -281,10 +255,38 @@
     <t>onset_dt</t>
   </si>
   <si>
-    <t>Last updated: May 3, 2020</t>
-  </si>
-  <si>
     <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Race and Ethnicity (combined)</t>
+  </si>
+  <si>
+    <t>race_ethnicity_combined</t>
+  </si>
+  <si>
+    <t>American Indian/Alaska Native, Non-Hispanic
+Asian, Non-Hispanic
+Black, Non-Hispanic
+Multiple/Other, Non-Hispanic
+Native Hawaiian/Other Pacific Islander, Non-Hispanic
+White, Non-Hispanic
+Hispanic/Latino
+Unknown</t>
+  </si>
+  <si>
+    <t>County of residence</t>
+  </si>
+  <si>
+    <t>res_county</t>
+  </si>
+  <si>
+    <t>State of residence</t>
+  </si>
+  <si>
+    <t>res_state</t>
+  </si>
+  <si>
+    <t>Last updated: June 27, 2020</t>
   </si>
 </sst>
 </file>
@@ -339,11 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -371,6 +370,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,585 +688,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5408C-34B2-4BD5-B368-D579A8A3CC4C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="7"/>
+    <col min="1" max="1" width="59.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="C20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="C28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="C30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data_dictionary_covid_cases_restricted_detailed.xlsx
+++ b/data_dictionary_covid_cases_restricted_detailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE3014-DAE8-6149-AC8B-F7645E8D829E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA61FF-7984-4050-ACFC-702C13F31658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="1720" windowWidth="27740" windowHeight="18020" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+  <si>
+    <t>Last updated: September 14, 2020</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>Variable</t>
   </si>
@@ -37,30 +45,44 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Pre-existing medical conditions?</t>
-  </si>
-  <si>
-    <t>medcond_yn</t>
-  </si>
-  <si>
-    <t>Yes
-No
-Unknown</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Calculation (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the current status of this person? </t>
+  </si>
+  <si>
+    <t>current_status</t>
+  </si>
+  <si>
+    <t>Case Report Form</t>
+  </si>
+  <si>
+    <t>Laboratory-confirmed case
+Probable case</t>
   </si>
   <si>
     <t>Character</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the current status of this person? </t>
-  </si>
-  <si>
-    <t>current_status</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Date case was first reported to the CDC</t>
   </si>
   <si>
     <t>cdc_report_dt</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>This date was populated using the date at which a case record was first submitted to the database. If missing, then the report date entered on the case report form was used. If missing, then the date at which the case first appeared in the databse was used.</t>
   </si>
   <si>
     <t>Sex</t>
@@ -75,163 +97,10 @@
 Other</t>
   </si>
   <si>
+    <t>Age group</t>
+  </si>
+  <si>
     <t>age_group</t>
-  </si>
-  <si>
-    <t>Date of first positive specimen collection (MM/DD/YYYY)</t>
-  </si>
-  <si>
-    <t>pos_spec_dt</t>
-  </si>
-  <si>
-    <t>Was the patient hospitalized?</t>
-  </si>
-  <si>
-    <t>hosp_yn</t>
-  </si>
-  <si>
-    <t>Was the patient admitted to an intensive care unit (ICU)?</t>
-  </si>
-  <si>
-    <t>icu_yn</t>
-  </si>
-  <si>
-    <t>Did the patient die as a result of this illness?</t>
-  </si>
-  <si>
-    <t>death_yn</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Case Report Form</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Age group</t>
-  </si>
-  <si>
-    <t>Calculation (if applicable)</t>
-  </si>
-  <si>
-    <t>Date case was first reported to the CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The age group categorizations were populated using the age value that was reported on the case report form. Date of birth was used to fill in missing/unknown age values using the difference in time between date of birth and onset date. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the patient a health care worker in the United States? </t>
-  </si>
-  <si>
-    <t>hc_work_yn</t>
-  </si>
-  <si>
-    <t>Fever &gt;100.4F (38C)</t>
-  </si>
-  <si>
-    <t>fever_yn</t>
-  </si>
-  <si>
-    <t>Subjective fever (felt feverish)</t>
-  </si>
-  <si>
-    <t>sfever_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chills </t>
-  </si>
-  <si>
-    <t>chills_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle aches (myalgia) </t>
-  </si>
-  <si>
-    <t>myalgia_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runny nose (rhinorrhea) </t>
-  </si>
-  <si>
-    <t>runnose_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sore throat </t>
-  </si>
-  <si>
-    <t>sthroat_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough (new onset or worsening of chronic cough) </t>
-  </si>
-  <si>
-    <t>cough_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortness of breath (dyspnea) </t>
-  </si>
-  <si>
-    <t>sob_yn</t>
-  </si>
-  <si>
-    <t>Nausea or Vomiting</t>
-  </si>
-  <si>
-    <t>nauseavomit_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headache </t>
-  </si>
-  <si>
-    <t>headache_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdominal pain </t>
-  </si>
-  <si>
-    <t>abdom_yn</t>
-  </si>
-  <si>
-    <t>Diarrhea (≥3 loose/looser than normal stools/24hr period)</t>
-  </si>
-  <si>
-    <t>diarrhea_yn</t>
-  </si>
-  <si>
-    <t>Did the patient develop pneumonia?</t>
-  </si>
-  <si>
-    <t>pna_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the patient have an abnormal chest X-ray? </t>
-  </si>
-  <si>
-    <t>abxchest_yn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the patient have acute respiratory distress syndrome? </t>
-  </si>
-  <si>
-    <t>acuterespdistress_yn</t>
-  </si>
-  <si>
-    <t>Did the patient receive mechanical ventilation (MV)/intubation?</t>
-  </si>
-  <si>
-    <t>mechvent_yn</t>
-  </si>
-  <si>
-    <t>If more than race was reported, race was categorized into multiple/other races.</t>
-  </si>
-  <si>
-    <t>This date was populated using the date at which a case record was first submitted to the database. If missing, then the report date entered on the case report form was used. If missing, then the date at which the case first appeared in the databse was used.</t>
   </si>
   <si>
     <t>0 - 9 Years
@@ -245,17 +114,7 @@
 Unknown</t>
   </si>
   <si>
-    <t>Laboratory-confirmed case
-Probable case</t>
-  </si>
-  <si>
-    <t>Date of symptom onset</t>
-  </si>
-  <si>
-    <t>onset_dt</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
+    <t xml:space="preserve">The age group categorizations were populated using the age value that was reported on the case report form. Date of birth was used to fill in missing/unknown age values using the difference in time between date of birth and onset date. </t>
   </si>
   <si>
     <t>Race and Ethnicity (combined)</t>
@@ -274,6 +133,21 @@
 Unknown</t>
   </si>
   <si>
+    <t>If more than race was reported, race was categorized into multiple/other races.</t>
+  </si>
+  <si>
+    <t>County FIPS Code</t>
+  </si>
+  <si>
+    <t>county_fips_code</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Fips Code was derived based on resident state and resident county. If resident state was missing or unknown, FIPS code was derived based on reporting state and resident county?</t>
+  </si>
+  <si>
     <t>County of residence</t>
   </si>
   <si>
@@ -286,7 +160,147 @@
     <t>res_state</t>
   </si>
   <si>
-    <t>Last updated: June 27, 2020</t>
+    <t>Date of symptom onset</t>
+  </si>
+  <si>
+    <t>onset_dt</t>
+  </si>
+  <si>
+    <t>Date of first positive specimen collection (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>pos_spec_dt</t>
+  </si>
+  <si>
+    <t>Was the patient hospitalized?</t>
+  </si>
+  <si>
+    <t>hosp_yn</t>
+  </si>
+  <si>
+    <t>Yes
+No
+Unknown</t>
+  </si>
+  <si>
+    <t>Was the patient admitted to an intensive care unit (ICU)?</t>
+  </si>
+  <si>
+    <t>icu_yn</t>
+  </si>
+  <si>
+    <t>Did the patient die as a result of this illness?</t>
+  </si>
+  <si>
+    <t>death_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the patient a health care worker in the United States? </t>
+  </si>
+  <si>
+    <t>hc_work_yn</t>
+  </si>
+  <si>
+    <t>Did the patient develop pneumonia?</t>
+  </si>
+  <si>
+    <t>pna_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did the patient have an abnormal chest X-ray? </t>
+  </si>
+  <si>
+    <t>abxchest_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did the patient have acute respiratory distress syndrome? </t>
+  </si>
+  <si>
+    <t>acuterespdistress_yn</t>
+  </si>
+  <si>
+    <t>Did the patient receive mechanical ventilation (MV)/intubation?</t>
+  </si>
+  <si>
+    <t>mechvent_yn</t>
+  </si>
+  <si>
+    <t>Fever &gt;100.4F (38C)</t>
+  </si>
+  <si>
+    <t>fever_yn</t>
+  </si>
+  <si>
+    <t>Subjective fever (felt feverish)</t>
+  </si>
+  <si>
+    <t>sfever_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chills </t>
+  </si>
+  <si>
+    <t>chills_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle aches (myalgia) </t>
+  </si>
+  <si>
+    <t>myalgia_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runny nose (rhinorrhea) </t>
+  </si>
+  <si>
+    <t>runnose_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sore throat </t>
+  </si>
+  <si>
+    <t>sthroat_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough (new onset or worsening of chronic cough) </t>
+  </si>
+  <si>
+    <t>cough_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortness of breath (dyspnea) </t>
+  </si>
+  <si>
+    <t>sob_yn</t>
+  </si>
+  <si>
+    <t>Nausea or Vomiting</t>
+  </si>
+  <si>
+    <t>nauseavomit_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headache </t>
+  </si>
+  <si>
+    <t>headache_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdominal pain </t>
+  </si>
+  <si>
+    <t>abdom_yn</t>
+  </si>
+  <si>
+    <t>Diarrhea (≥3 loose/looser than normal stools/24hr period)</t>
+  </si>
+  <si>
+    <t>diarrhea_yn</t>
+  </si>
+  <si>
+    <t>Pre-existing medical conditions?</t>
+  </si>
+  <si>
+    <t>medcond_yn</t>
   </si>
 </sst>
 </file>
@@ -341,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -374,6 +388,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,51 +705,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5408C-34B2-4BD5-B368-D579A8A3CC4C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="35" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="6"/>
+    <col min="8" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -740,552 +757,844 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>70</v>
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>34</v>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100421E03D7E06C234EB5626DEC4B2F4B58" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d681b795e1ce027f209e0641691074eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a12d8773-0f30-405c-b193-40869fe1c1e6" xmlns:ns3="1edd9f51-35c2-425f-bf6f-7b72bac0b145" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d6ed279c48a47a29cd1cd984c3b420" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
+    <xsd:import namespace="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="17" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a12d8773-0f30-405c-b193-40869fe1c1e6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1edd9f51-35c2-425f-bf6f-7b72bac0b145" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="0" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D23129-BA43-4A2F-A94A-EB23F1BAD1F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA1AD85-4B7C-4300-BEFB-DCB090DF7E12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
+    <ds:schemaRef ds:uri="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929926F-7FAB-4221-93CC-ED28560DD47F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data_dictionary_covid_cases_restricted_detailed.xlsx
+++ b/data_dictionary_covid_cases_restricted_detailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA61FF-7984-4050-ACFC-702C13F31658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F106F01-4B7C-4EDF-ACCF-252DAC80AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,6 +21,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
-    <t>Last updated: September 14, 2020</t>
+    <t>Last updated: November 19, 2020</t>
   </si>
   <si>
     <t>Description</t>
@@ -82,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>This date was populated using the date at which a case record was first submitted to the database. If missing, then the report date entered on the case report form was used. If missing, then the date at which the case first appeared in the databse was used.</t>
+    <t>This date was populated using the date at which a case record was first submitted to the database. If missing, then the report date entered on the case report form was used. If missing, then the date at which the case first appeared in the database was used.</t>
   </si>
   <si>
     <t>Sex</t>
@@ -166,7 +167,7 @@
     <t>onset_dt</t>
   </si>
   <si>
-    <t>Date of first positive specimen collection (MM/DD/YYYY)</t>
+    <t>Date of first positive specimen collection</t>
   </si>
   <si>
     <t>pos_spec_dt</t>
@@ -307,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,27 +710,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="35" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="6"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -749,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="28.9">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -766,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="128.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -787,7 +788,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="57.6">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -804,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="149.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -824,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="129.6">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -844,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="57.6">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -862,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="7" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
@@ -878,7 +879,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="7" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
@@ -913,7 +914,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -930,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="43.15">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -947,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="43.15">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -964,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="43.15">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -981,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="43.15">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -998,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="43.15">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
@@ -1017,7 +1018,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="43.15">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1037,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.15">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="43.15">
       <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
@@ -1093,7 +1094,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -1112,7 +1113,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -1131,7 +1132,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -1150,7 +1151,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -1169,7 +1170,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1188,7 +1189,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -1207,7 +1208,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A28" s="8" t="s">
         <v>72</v>
       </c>
@@ -1226,7 +1227,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -1245,7 +1246,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A30" s="8" t="s">
         <v>76</v>
       </c>
@@ -1264,7 +1265,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A31" s="8" t="s">
         <v>78</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="43.15">
       <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
@@ -1302,7 +1303,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="43.15">
       <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
@@ -1554,47 +1555,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D23129-BA43-4A2F-A94A-EB23F1BAD1F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D23129-BA43-4A2F-A94A-EB23F1BAD1F0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA1AD85-4B7C-4300-BEFB-DCB090DF7E12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
-    <ds:schemaRef ds:uri="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA1AD85-4B7C-4300-BEFB-DCB090DF7E12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929926F-7FAB-4221-93CC-ED28560DD47F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929926F-7FAB-4221-93CC-ED28560DD47F}"/>
 </file>
--- a/data_dictionary_covid_cases_restricted_detailed.xlsx
+++ b/data_dictionary_covid_cases_restricted_detailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F106F01-4B7C-4EDF-ACCF-252DAC80AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B65846-4435-4E9E-A621-44ED10490A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
+    <workbookView xWindow="1416" yWindow="600" windowWidth="21624" windowHeight="12360" xr2:uid="{3A1DE3AA-CD8F-48E4-8503-F6FD448E3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
-  <si>
-    <t>Last updated: November 19, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
+  <si>
+    <t>Last updated: December 21, 2020</t>
   </si>
   <si>
     <t>Description</t>
@@ -84,6 +83,12 @@
   </si>
   <si>
     <t>This date was populated using the date at which a case record was first submitted to the database. If missing, then the report date entered on the case report form was used. If missing, then the date at which the case first appeared in the database was used.</t>
+  </si>
+  <si>
+    <t>The earlier of the Clinical Date (date related to the illness or specimen collection) or the Date Received by CDC</t>
+  </si>
+  <si>
+    <t>Cdc_case_earliest_dt uses the best available date from both cdc_received_dt and cdc_clinical_obs_dt and is an option to end-users who need a date variable with optimized completeness. The logic of cdc_case_earliest_dt is to use the non-null date of one variable when the other is null and to use the earliest valid date when both dates are available.</t>
   </si>
   <si>
     <t>Sex</t>
@@ -303,12 +308,15 @@
   <si>
     <t>medcond_yn</t>
   </si>
+  <si>
+    <t>cdc_case_earliest_dt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +343,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -391,6 +406,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,31 +727,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5408C-34B2-4BD5-B368-D579A8A3CC4C}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="35" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="8" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -750,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="28.9">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -767,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="128.25" customHeight="1">
+    <row r="4" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -788,98 +809,103 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="57.6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="149.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="129.6">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="57.6">
-      <c r="A8" s="14" t="s">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
-      <c r="A9" s="12" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -895,33 +921,30 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -930,42 +953,44 @@
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="43.15">
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="43.15">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="43.15">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -976,13 +1001,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="43.15">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -993,14 +1018,14 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="43.15">
-      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1010,16 +1035,14 @@
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="43.15">
-      <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1029,15 +1052,15 @@
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.15">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1048,15 +1071,15 @@
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="43.15">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
@@ -1067,34 +1090,34 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="43.15">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="43.15">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>11</v>
@@ -1113,7 +1136,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -1124,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>11</v>
@@ -1132,7 +1155,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -1143,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>11</v>
@@ -1151,7 +1174,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>11</v>
@@ -1170,7 +1193,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>11</v>
@@ -1189,7 +1212,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -1200,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>11</v>
@@ -1208,7 +1231,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>72</v>
       </c>
@@ -1219,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>11</v>
@@ -1227,7 +1250,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -1238,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>11</v>
@@ -1246,7 +1269,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>76</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>11</v>
@@ -1265,7 +1288,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>78</v>
       </c>
@@ -1276,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>11</v>
@@ -1284,7 +1307,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="43.15">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>11</v>
@@ -1303,7 +1326,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="43.15">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
@@ -1314,9 +1337,28 @@
         <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1336,6 +1378,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100421E03D7E06C234EB5626DEC4B2F4B58" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d681b795e1ce027f209e0641691074eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a12d8773-0f30-405c-b193-40869fe1c1e6" xmlns:ns3="1edd9f51-35c2-425f-bf6f-7b72bac0b145" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d6ed279c48a47a29cd1cd984c3b420" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1545,23 +1596,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D23129-BA43-4A2F-A94A-EB23F1BAD1F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D23129-BA43-4A2F-A94A-EB23F1BAD1F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA1AD85-4B7C-4300-BEFB-DCB090DF7E12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929926F-7FAB-4221-93CC-ED28560DD47F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929926F-7FAB-4221-93CC-ED28560DD47F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA1AD85-4B7C-4300-BEFB-DCB090DF7E12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a12d8773-0f30-405c-b193-40869fe1c1e6"/>
+    <ds:schemaRef ds:uri="1edd9f51-35c2-425f-bf6f-7b72bac0b145"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>